--- a/Coding/Save results.xlsx
+++ b/Coding/Save results.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment 1" sheetId="1" r:id="rId1"/>
     <sheet name="Experiment 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Experiment 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="21">
   <si>
     <t>Y</t>
   </si>
@@ -85,6 +86,9 @@
   </si>
   <si>
     <t>boys2</t>
+  </si>
+  <si>
+    <t>girls2</t>
   </si>
 </sst>
 </file>
@@ -925,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12:K27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1370,4 +1374,471 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>52474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>15030</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>38678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>13959</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>70211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>20027</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>32345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>11930</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <f>SUM(E2,E4,E6,E8)</f>
+        <v>193708</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="8">
+        <f>E2</f>
+        <v>52474</v>
+      </c>
+      <c r="C12" s="7">
+        <f>B12/$B$11</f>
+        <v>0.27089227084064676</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="8">
+        <f>E4</f>
+        <v>38678</v>
+      </c>
+      <c r="C13" s="7">
+        <f t="shared" ref="C13:C15" si="0">B13/$B$11</f>
+        <v>0.19967167076217812</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="8">
+        <f>E6</f>
+        <v>70211</v>
+      </c>
+      <c r="C14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.3624579263633923</v>
+      </c>
+      <c r="N14" s="6"/>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="8">
+        <f>E8</f>
+        <v>32345</v>
+      </c>
+      <c r="C15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.16697813203378281</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="S15" s="3"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="8"/>
+      <c r="C16" s="7"/>
+      <c r="N16" s="6"/>
+      <c r="S16" s="2"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="8">
+        <f>E3+E5+E7+E9</f>
+        <v>60946</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="N17" s="1"/>
+      <c r="S17" s="3"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="8">
+        <f>E3</f>
+        <v>15030</v>
+      </c>
+      <c r="C18" s="7">
+        <f>B18/$B$17</f>
+        <v>0.24661175466806681</v>
+      </c>
+      <c r="N18" s="6"/>
+      <c r="S18" s="2"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="8">
+        <f>E5</f>
+        <v>13959</v>
+      </c>
+      <c r="C19" s="7">
+        <f t="shared" ref="C19:C21" si="1">B19/$B$17</f>
+        <v>0.22903882125159977</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="8">
+        <f>E7</f>
+        <v>20027</v>
+      </c>
+      <c r="C20" s="7">
+        <f t="shared" si="1"/>
+        <v>0.32860236931053721</v>
+      </c>
+      <c r="N20" s="6"/>
+      <c r="S20" s="2"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="8">
+        <f>E9</f>
+        <v>11930</v>
+      </c>
+      <c r="C21" s="7">
+        <f t="shared" si="1"/>
+        <v>0.1957470547697962</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="S21" s="3"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="N22" s="6"/>
+      <c r="S22" s="2"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="S23" s="3"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="7">
+        <f>MAX(C14+C15,C20+C21)</f>
+        <v>0.52943605839717511</v>
+      </c>
+      <c r="C24" s="7">
+        <f>MIN(C13+C14+C15,C19+C20+C21)</f>
+        <v>0.72910772915935329</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24">
+        <v>0.52689520000000001</v>
+      </c>
+      <c r="G24">
+        <v>0.73107279999999997</v>
+      </c>
+      <c r="N24" s="6"/>
+      <c r="S24" s="2"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="7">
+        <f>MAX(C15,C21)</f>
+        <v>0.1957470547697962</v>
+      </c>
+      <c r="C25" s="7">
+        <f>MIN(C15+C14,C21+C20)</f>
+        <v>0.52434942408033347</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25">
+        <v>0.1927372</v>
+      </c>
+      <c r="G25">
+        <v>0.52887930000000005</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="S25" s="3"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="N26" s="6"/>
+      <c r="S26" s="2"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="1"/>
+      <c r="S27" s="3"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="7">
+        <f>MAX(C14,C20)</f>
+        <v>0.3624579263633923</v>
+      </c>
+      <c r="C28" s="7">
+        <f>MIN(C14+C15,C20+C21)</f>
+        <v>0.52434942408033347</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28">
+        <v>0.3603287</v>
+      </c>
+      <c r="G28">
+        <v>0.52887930000000005</v>
+      </c>
+      <c r="N28" s="6"/>
+      <c r="S28" s="2"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="7">
+        <f>MAX(C15+C14,C21+C20)</f>
+        <v>0.52943605839717511</v>
+      </c>
+      <c r="C29" s="7">
+        <f>MIN(C12+C14+C15,C18+C20+C21)</f>
+        <v>0.77096117874840031</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29">
+        <v>0.52689520000000001</v>
+      </c>
+      <c r="G29">
+        <v>0.77417729999999996</v>
+      </c>
+      <c r="N29" s="1"/>
+      <c r="S29" s="3"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S30" s="4"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S31" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Coding/Save results.xlsx
+++ b/Coding/Save results.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment 1" sheetId="1" r:id="rId1"/>
     <sheet name="Experiment 2" sheetId="2" r:id="rId2"/>
     <sheet name="Experiment 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Experiment 4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="25">
   <si>
     <t>Y</t>
   </si>
@@ -89,6 +90,18 @@
   </si>
   <si>
     <t>girls2</t>
+  </si>
+  <si>
+    <t>different</t>
+  </si>
+  <si>
+    <t>Z=boys</t>
+  </si>
+  <si>
+    <t>Z=girls</t>
+  </si>
+  <si>
+    <t>Z=different</t>
   </si>
 </sst>
 </file>
@@ -444,7 +457,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24:G25"/>
+      <selection activeCell="A23" sqref="A23:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,8 +1393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1841,4 +1854,671 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="8.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>1-D2-E2</f>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>35186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F13" si="0">1-D3-E3</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>15030</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>17288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>23624</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>13959</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>15054</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>47105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>20027</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>23106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>19994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>11930</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>12351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <f>SUM(G4,G7,G10,G13)</f>
+        <v>67799</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" s="6"/>
+      <c r="T15" s="6"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="8">
+        <f>G4</f>
+        <v>17288</v>
+      </c>
+      <c r="C16" s="7">
+        <f>B16/$B$15</f>
+        <v>0.25498901163733978</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="7">
+        <f>MAX(C18+C19,C24+C25,C30+C31)</f>
+        <v>0.53291663026471503</v>
+      </c>
+      <c r="G16" s="7">
+        <f>1-MAX(C16,C22,C28)</f>
+        <v>0.72054420255899099</v>
+      </c>
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16">
+        <v>0.52955110000000005</v>
+      </c>
+      <c r="K16">
+        <v>0.72298070000000003</v>
+      </c>
+      <c r="P16" s="1"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="8">
+        <f>G7</f>
+        <v>15054</v>
+      </c>
+      <c r="C17" s="7">
+        <f t="shared" ref="C17:C19" si="1">B17/$B$15</f>
+        <v>0.22203867313677192</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="7">
+        <f>MAX(C19,C25,C31)</f>
+        <v>0.1957470547697962</v>
+      </c>
+      <c r="G17" s="7">
+        <f>MIN(C18+C19,C24+C25,C30+C31)</f>
+        <v>0.52297231522588827</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17">
+        <v>0.1923105</v>
+      </c>
+      <c r="K17">
+        <v>0.52755870000000005</v>
+      </c>
+      <c r="P17" s="6"/>
+      <c r="T17" s="6"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="8">
+        <f>G10</f>
+        <v>23106</v>
+      </c>
+      <c r="C18" s="7">
+        <f t="shared" si="1"/>
+        <v>0.34080148674759214</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="P18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="8">
+        <f>G13</f>
+        <v>12351</v>
+      </c>
+      <c r="C19" s="7">
+        <f t="shared" si="1"/>
+        <v>0.18217082847829613</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="6"/>
+      <c r="T19" s="6"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="8"/>
+      <c r="C20" s="7"/>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="7">
+        <f>MAX(C18,C24,C30)</f>
+        <v>0.37411940369632035</v>
+      </c>
+      <c r="G20" s="7">
+        <f>MIN(C19+C18,C24+C25,C30+C31)</f>
+        <v>0.52297231522588827</v>
+      </c>
+      <c r="I20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20">
+        <v>0.37147989999999997</v>
+      </c>
+      <c r="K20">
+        <v>0.52755870000000005</v>
+      </c>
+      <c r="P20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="8">
+        <f>SUM(G3,G6,G9,G12)</f>
+        <v>60946</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="7">
+        <f>MAX(C18+C19,C24+C25,C30+C31)</f>
+        <v>0.53291663026471503</v>
+      </c>
+      <c r="G21" s="7">
+        <f>1-MAX(C17,C23,C29)</f>
+        <v>0.7709611787484002</v>
+      </c>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21">
+        <v>0.53036190000000005</v>
+      </c>
+      <c r="K21">
+        <v>0.77463210000000005</v>
+      </c>
+      <c r="P21" s="6"/>
+      <c r="T21" s="6"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="8">
+        <f>G3</f>
+        <v>15030</v>
+      </c>
+      <c r="C22" s="7">
+        <f>B22/$B$21</f>
+        <v>0.24661175466806681</v>
+      </c>
+      <c r="P22" s="1"/>
+      <c r="T22" s="1"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="8">
+        <f>G6</f>
+        <v>13959</v>
+      </c>
+      <c r="C23" s="7">
+        <f t="shared" ref="C23:C25" si="2">B23/$B$21</f>
+        <v>0.22903882125159977</v>
+      </c>
+      <c r="P23" s="6"/>
+      <c r="T23" s="6"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="8">
+        <f>G9</f>
+        <v>20027</v>
+      </c>
+      <c r="C24" s="7">
+        <f t="shared" si="2"/>
+        <v>0.32860236931053721</v>
+      </c>
+      <c r="P24" s="1"/>
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="8">
+        <f>G12</f>
+        <v>11930</v>
+      </c>
+      <c r="C25" s="7">
+        <f t="shared" si="2"/>
+        <v>0.1957470547697962</v>
+      </c>
+      <c r="P25" s="6"/>
+      <c r="T25" s="6"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P26" s="1"/>
+      <c r="T26" s="1"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <f>SUM(G2,G5,G8,G11)</f>
+        <v>125909</v>
+      </c>
+      <c r="P27" s="6"/>
+      <c r="T27" s="6"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="8">
+        <f>G2</f>
+        <v>35186</v>
+      </c>
+      <c r="C28" s="7">
+        <f>B28/$B$27</f>
+        <v>0.27945579744100896</v>
+      </c>
+      <c r="P28" s="1"/>
+      <c r="T28" s="1"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="8">
+        <f>G5</f>
+        <v>23624</v>
+      </c>
+      <c r="C29" s="7">
+        <f t="shared" ref="C29:C31" si="3">B29/$B$27</f>
+        <v>0.18762757229427601</v>
+      </c>
+      <c r="P29" s="6"/>
+      <c r="T29" s="6"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="8">
+        <f>G8</f>
+        <v>47105</v>
+      </c>
+      <c r="C30" s="7">
+        <f t="shared" si="3"/>
+        <v>0.37411940369632035</v>
+      </c>
+      <c r="P30" s="1"/>
+      <c r="T30" s="1"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="8">
+        <f>G11</f>
+        <v>19994</v>
+      </c>
+      <c r="C31" s="7">
+        <f t="shared" si="3"/>
+        <v>0.15879722656839462</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Coding/Save results.xlsx
+++ b/Coding/Save results.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment 1" sheetId="1" r:id="rId1"/>
     <sheet name="Experiment 2" sheetId="2" r:id="rId2"/>
     <sheet name="Experiment 3" sheetId="3" r:id="rId3"/>
     <sheet name="Experiment 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Experiment 5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="31">
   <si>
     <t>Y</t>
   </si>
@@ -102,6 +103,24 @@
   </si>
   <si>
     <t>Z=different</t>
+  </si>
+  <si>
+    <t>boy1st</t>
+  </si>
+  <si>
+    <t>boy2nd</t>
+  </si>
+  <si>
+    <t>boygirl</t>
+  </si>
+  <si>
+    <t>girlboy</t>
+  </si>
+  <si>
+    <t>Z=boygirl</t>
+  </si>
+  <si>
+    <t>Z=girlboy</t>
   </si>
 </sst>
 </file>
@@ -457,7 +476,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:G29"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1860,8 +1879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="A15:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2521,4 +2540,997 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f>(D2*(1-E2))</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>(1-D2)*E2</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>15030</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H17" si="0">(D3*(1-E3))</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I17" si="1">(1-D3)*E3</f>
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>17664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>17522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>17288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>13959</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>11840</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>11784</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>15054</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>20027</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>23323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>23782</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>23106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>11930</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>9897</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>10097</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>12351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <f>SUM(J5,J9,J13,J17)</f>
+        <v>67799</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="6"/>
+      <c r="U19" s="6"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="8">
+        <f>J5</f>
+        <v>17288</v>
+      </c>
+      <c r="C20" s="7">
+        <f>B20/$B$19</f>
+        <v>0.25498901163733978</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="7">
+        <f>MAX(C22+C23,C28+C29,C34+C35,C40+C41)</f>
+        <v>0.53618738624673579</v>
+      </c>
+      <c r="G20" s="7">
+        <f>1-MAX(C20,C26,C32,C38)</f>
+        <v>0.71838530705949877</v>
+      </c>
+      <c r="I20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20">
+        <v>0.53123339999999997</v>
+      </c>
+      <c r="K20">
+        <v>0.72233040000000004</v>
+      </c>
+      <c r="Q20" s="1"/>
+      <c r="U20" s="1"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="8">
+        <f>J9</f>
+        <v>15054</v>
+      </c>
+      <c r="C21" s="7">
+        <f t="shared" ref="C21:C23" si="2">B21/$B$19</f>
+        <v>0.22203867313677192</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="7">
+        <f>MAX(C23,C29,C35,C41)</f>
+        <v>0.1957470547697962</v>
+      </c>
+      <c r="G21" s="7">
+        <f>MIN(C23+C22,C29+C28,C35+C34,C41+C40)</f>
+        <v>0.52297231522588827</v>
+      </c>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21">
+        <v>0.19273950000000001</v>
+      </c>
+      <c r="K21">
+        <v>0.52775479999999997</v>
+      </c>
+      <c r="Q21" s="6"/>
+      <c r="U21" s="6"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="8">
+        <f>J13</f>
+        <v>23106</v>
+      </c>
+      <c r="C22" s="7">
+        <f t="shared" si="2"/>
+        <v>0.34080148674759214</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="Q22" s="1"/>
+      <c r="U22" s="1"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="8">
+        <f>J17</f>
+        <v>12351</v>
+      </c>
+      <c r="C23" s="7">
+        <f t="shared" si="2"/>
+        <v>0.18217082847829613</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q23" s="6"/>
+      <c r="U23" s="6"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B24" s="8"/>
+      <c r="C24" s="7"/>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="7">
+        <f>MAX(C22,C28,C34,C40)</f>
+        <v>0.37638680066471475</v>
+      </c>
+      <c r="G24" s="7">
+        <f>MIN(C22+C23,C28+C29,C34+C35,C40+C41)</f>
+        <v>0.52297231522588827</v>
+      </c>
+      <c r="I24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24">
+        <v>0.37212859999999998</v>
+      </c>
+      <c r="K24">
+        <v>0.52775479999999997</v>
+      </c>
+      <c r="Q24" s="1"/>
+      <c r="U24" s="1"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="8">
+        <f>SUM(J2,J6,J10,J14)</f>
+        <v>60946</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="7">
+        <f>MAX(C22+C23,C28+C29,C34+C35,C40+C41)</f>
+        <v>0.53618738624673579</v>
+      </c>
+      <c r="G25" s="7">
+        <f>1-MAX(C21,C27,C33,C39)</f>
+        <v>0.7709611787484002</v>
+      </c>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25">
+        <v>0.53123339999999997</v>
+      </c>
+      <c r="K25">
+        <v>0.77463130000000002</v>
+      </c>
+      <c r="Q25" s="6"/>
+      <c r="U25" s="6"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="8">
+        <f>J2</f>
+        <v>15030</v>
+      </c>
+      <c r="C26" s="7">
+        <f>B26/$B$25</f>
+        <v>0.24661175466806681</v>
+      </c>
+      <c r="Q26" s="1"/>
+      <c r="U26" s="1"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="8">
+        <f>J6</f>
+        <v>13959</v>
+      </c>
+      <c r="C27" s="7">
+        <f t="shared" ref="C27:C29" si="3">B27/$B$25</f>
+        <v>0.22903882125159977</v>
+      </c>
+      <c r="Q27" s="6"/>
+      <c r="U27" s="6"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="8">
+        <f>J10</f>
+        <v>20027</v>
+      </c>
+      <c r="C28" s="7">
+        <f t="shared" si="3"/>
+        <v>0.32860236931053721</v>
+      </c>
+      <c r="Q28" s="1"/>
+      <c r="U28" s="1"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="8">
+        <f>J14</f>
+        <v>11930</v>
+      </c>
+      <c r="C29" s="7">
+        <f t="shared" si="3"/>
+        <v>0.1957470547697962</v>
+      </c>
+      <c r="Q29" s="6"/>
+      <c r="U29" s="6"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q30" s="1"/>
+      <c r="U30" s="1"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <f>SUM(J4,J8,J12,J16)</f>
+        <v>63185</v>
+      </c>
+      <c r="Q31" s="6"/>
+      <c r="U31" s="6"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="8">
+        <f>J4</f>
+        <v>17522</v>
+      </c>
+      <c r="C32" s="7">
+        <f>B32/$B$31</f>
+        <v>0.27731265331961702</v>
+      </c>
+      <c r="Q32" s="1"/>
+      <c r="U32" s="1"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="8">
+        <f>J8</f>
+        <v>11784</v>
+      </c>
+      <c r="C33" s="7">
+        <f t="shared" ref="C33:C35" si="4">B33/$B$31</f>
+        <v>0.18649996043364722</v>
+      </c>
+      <c r="Q33" s="6"/>
+      <c r="U33" s="6"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="8">
+        <f>J12</f>
+        <v>23782</v>
+      </c>
+      <c r="C34" s="7">
+        <f t="shared" si="4"/>
+        <v>0.37638680066471475</v>
+      </c>
+      <c r="Q34" s="1"/>
+      <c r="U34" s="1"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="8">
+        <f>J16</f>
+        <v>10097</v>
+      </c>
+      <c r="C35" s="7">
+        <f t="shared" si="4"/>
+        <v>0.15980058558202104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37">
+        <f>SUM(J15,J11,J7,J3)</f>
+        <v>62724</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="8">
+        <f>J3</f>
+        <v>17664</v>
+      </c>
+      <c r="C38" s="7">
+        <f>B38/$B$37</f>
+        <v>0.28161469294050123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="8">
+        <f>J7</f>
+        <v>11840</v>
+      </c>
+      <c r="C39" s="7">
+        <f t="shared" ref="C39:C41" si="5">B39/$B$37</f>
+        <v>0.18876347171736496</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="8">
+        <f>J11</f>
+        <v>23323</v>
+      </c>
+      <c r="C40" s="7">
+        <f t="shared" si="5"/>
+        <v>0.37183534213379249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="8">
+        <f>J15</f>
+        <v>9897</v>
+      </c>
+      <c r="C41" s="7">
+        <f t="shared" si="5"/>
+        <v>0.15778649320834132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Coding/Save results.xlsx
+++ b/Coding/Save results.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\econ-fs\Home3\zctpep9\GitHub\Covariatesets\Coding\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11985" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment 1" sheetId="1" r:id="rId1"/>
@@ -17,8 +12,11 @@
     <sheet name="Experiment 3" sheetId="3" r:id="rId3"/>
     <sheet name="Experiment 4" sheetId="4" r:id="rId4"/>
     <sheet name="Experiment 5" sheetId="5" r:id="rId5"/>
+    <sheet name="Experiment 6" sheetId="6" r:id="rId6"/>
+    <sheet name="Experiment 7" sheetId="7" r:id="rId7"/>
+    <sheet name="Experiment 8" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="36">
   <si>
     <t>Y</t>
   </si>
@@ -122,15 +120,30 @@
   <si>
     <t>Z=girlboy</t>
   </si>
+  <si>
+    <t>multi2nd</t>
+  </si>
+  <si>
+    <t>samesex</t>
+  </si>
+  <si>
+    <t>Z=2</t>
+  </si>
+  <si>
+    <t>boy2</t>
+  </si>
+  <si>
+    <t>girl2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +162,22 @@
       <color rgb="FF0000FF"/>
       <name val="Lucida Console"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -191,8 +220,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,7 +497,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -476,7 +508,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="A23" sqref="A23:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2546,7 +2578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
@@ -3533,4 +3565,2547 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>67504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>51528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>90238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>43266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <f>SUM(E2:E3,E5:E6)</f>
+        <v>252536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="8">
+        <f>E2</f>
+        <v>67504</v>
+      </c>
+      <c r="C12" s="7">
+        <f>B12/$B$11</f>
+        <v>0.26730446352203252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="8">
+        <f>E3</f>
+        <v>51528</v>
+      </c>
+      <c r="C13" s="7">
+        <f t="shared" ref="C13:C15" si="0">B13/$B$11</f>
+        <v>0.20404219596413978</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="8">
+        <f>E5</f>
+        <v>90238</v>
+      </c>
+      <c r="C14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.35732727215129723</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="8">
+        <f>E6</f>
+        <v>43266</v>
+      </c>
+      <c r="C15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.1713260683625305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="8"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="8">
+        <f>SUM(E4,E7)</f>
+        <v>2118</v>
+      </c>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0</v>
+      </c>
+      <c r="C18" s="7">
+        <f>B18/$B$17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="8">
+        <f>E4</f>
+        <v>1109</v>
+      </c>
+      <c r="C19" s="7">
+        <f t="shared" ref="C19:C21" si="1">B19/$B$17</f>
+        <v>0.52360717658168088</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="8">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="8">
+        <f>E7</f>
+        <v>1009</v>
+      </c>
+      <c r="C21" s="7">
+        <f t="shared" si="1"/>
+        <v>0.47639282341831918</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="7">
+        <f>MAX(C14+C15,C20+C21)</f>
+        <v>0.52865334051382773</v>
+      </c>
+      <c r="C24" s="7">
+        <f>MIN(C13+C14+C15,C19+C20+C21)</f>
+        <v>0.73269553647796748</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="7">
+        <f>MAX(C15,C21)</f>
+        <v>0.47639282341831918</v>
+      </c>
+      <c r="C25" s="7">
+        <f>MIN(C15+C14,C21+C20)</f>
+        <v>0.47639282341831918</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="10">
+        <f>MAX(C14,C20)</f>
+        <v>0.35732727215129723</v>
+      </c>
+      <c r="C28" s="10">
+        <f>MIN(C14+C15,C20+C21)</f>
+        <v>0.47639282341831918</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="10">
+        <f>MAX(C15+C14,C21+C20)</f>
+        <v>0.52865334051382773</v>
+      </c>
+      <c r="C29" s="10">
+        <f>MIN(C12+C14+C15,C18+C20+C21)</f>
+        <v>0.47639282341831918</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>35186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>32318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>23066</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>28462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>47105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>43133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>19519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>23747</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <f>SUM(F2,F4,F8,F10)</f>
+        <v>124876</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="8">
+        <f>F2</f>
+        <v>35186</v>
+      </c>
+      <c r="C16" s="7">
+        <f>B16/$B$15</f>
+        <v>0.28176751337326628</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="7">
+        <f>MAX(C18+C19,C24+C25,C30+C31)</f>
+        <v>0.53352125308305842</v>
+      </c>
+      <c r="G16" s="7">
+        <f>1-MAX(C16,C22,C28)</f>
+        <v>0.71823248662673378</v>
+      </c>
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="8">
+        <f>F4</f>
+        <v>23066</v>
+      </c>
+      <c r="C17" s="7">
+        <f t="shared" ref="C17:C18" si="0">B17/$B$15</f>
+        <v>0.18471123354367533</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="7">
+        <f>MAX(C19,C25,C31)</f>
+        <v>0.47639282341831918</v>
+      </c>
+      <c r="G17" s="7">
+        <f>MIN(C18+C19,C24+C25,C30+C31)</f>
+        <v>0.47639282341831918</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="8">
+        <f>F8</f>
+        <v>47105</v>
+      </c>
+      <c r="C18" s="7">
+        <f t="shared" si="0"/>
+        <v>0.37721419648291105</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="8">
+        <f>F10</f>
+        <v>19519</v>
+      </c>
+      <c r="C19" s="7">
+        <f>B19/$B$15</f>
+        <v>0.15630705660014735</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="8"/>
+      <c r="C20" s="7"/>
+      <c r="E20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="10">
+        <f>MAX(C18,C24,C30)</f>
+        <v>0.37721419648291105</v>
+      </c>
+      <c r="G20" s="10">
+        <f>MIN(C19+C18,C24+C25,C31+C30)</f>
+        <v>0.47639282341831918</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="8">
+        <f>SUM(F6,F7,F12,F13)</f>
+        <v>2118</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="E21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="10">
+        <f>MAX(C19+C18,C24+C25,C31+C30)</f>
+        <v>0.53352125308305842</v>
+      </c>
+      <c r="G21" s="10">
+        <f>1-MAX(C17,C23,C29)</f>
+        <v>0.47639282341831912</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="7">
+        <f>B22/$B$21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="8">
+        <f>SUM(F6:F7)</f>
+        <v>1109</v>
+      </c>
+      <c r="C23" s="7">
+        <f t="shared" ref="C23:C25" si="1">B23/$B$21</f>
+        <v>0.52360717658168088</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="8">
+        <v>0</v>
+      </c>
+      <c r="C24" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="8">
+        <f>SUM(F12:F13)</f>
+        <v>1009</v>
+      </c>
+      <c r="C25" s="7">
+        <f t="shared" si="1"/>
+        <v>0.47639282341831918</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="8">
+        <f>SUM(F3,F5,F9,F11)</f>
+        <v>127660</v>
+      </c>
+      <c r="C27" s="7"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="8">
+        <f>F3</f>
+        <v>32318</v>
+      </c>
+      <c r="C28" s="7">
+        <f>B28/$B$27</f>
+        <v>0.25315682281059065</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="8">
+        <f>F5</f>
+        <v>28462</v>
+      </c>
+      <c r="C29" s="7">
+        <f t="shared" ref="C29:C31" si="2">B29/$B$27</f>
+        <v>0.22295159016136612</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="8">
+        <f>F9</f>
+        <v>43133</v>
+      </c>
+      <c r="C30" s="7">
+        <f t="shared" si="2"/>
+        <v>0.33787404041986524</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="8">
+        <f>F11</f>
+        <v>23747</v>
+      </c>
+      <c r="C31" s="7">
+        <f t="shared" si="2"/>
+        <v>0.18601754660817799</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>15030</v>
+      </c>
+      <c r="K2">
+        <f>D2</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>(1-D2)*G2*(1-H2)</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>(1-D2)*(1-G2)*H2</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>(1-D2)*G2*H2</f>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f>(1-D2)*(1-G2)*(1-H2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>13716</v>
+      </c>
+      <c r="K3">
+        <f>D3</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>(1-D3)*G3*(1-H3)</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>(1-D3)*(1-G3)*H3</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>(1-D3)*G3*H3</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f>(1-D3)*(1-G3)*(1-H3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>20027</v>
+      </c>
+      <c r="K4">
+        <f>D4</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>(1-D4)*G4*(1-H4)</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>(1-D4)*(1-G4)*H4</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>(1-D4)*G4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f>(1-D4)*(1-G4)*(1-H4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>11673</v>
+      </c>
+      <c r="K5">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f>(1-D5)*G5*(1-H5)</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f>(1-D5)*(1-G5)*H5</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f>(1-D5)*G5*H5</f>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f>(1-D5)*(1-G5)*(1-H5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>17288</v>
+      </c>
+      <c r="K6">
+        <f>D6</f>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f>(1-D6)*G6*(1-H6)</f>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f>(1-D6)*(1-G6)*H6</f>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f>(1-D6)*G6*H6</f>
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <f>(1-D6)*(1-G6)*(1-H6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>14746</v>
+      </c>
+      <c r="K7">
+        <f>D7</f>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f>(1-D7)*G7*(1-H7)</f>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f>(1-D7)*(1-G7)*H7</f>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f>(1-D7)*G7*H7</f>
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <f>(1-D7)*(1-G7)*(1-H7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>23106</v>
+      </c>
+      <c r="K8">
+        <f>D8</f>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f>(1-D8)*G8*(1-H8)</f>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f>(1-D8)*(1-G8)*H8</f>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f>(1-D8)*G8*H8</f>
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <f>(1-D8)*(1-G8)*(1-H8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>12074</v>
+      </c>
+      <c r="K9">
+        <f>D9</f>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f>(1-D9)*G9*(1-H9)</f>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f>(1-D9)*(1-G9)*H9</f>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f>(1-D9)*G9*H9</f>
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <f>(1-D9)*(1-G9)*(1-H9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>17664</v>
+      </c>
+      <c r="K10">
+        <f>D10</f>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f>(1-D10)*G10*(1-H10)</f>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f>(1-D10)*(1-G10)*H10</f>
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <f>(1-D10)*G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f>(1-D10)*(1-G10)*(1-H10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>11565</v>
+      </c>
+      <c r="K11">
+        <f>D11</f>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f>(1-D11)*G11*(1-H11)</f>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f>(1-D11)*(1-G11)*H11</f>
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <f>(1-D11)*G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f>(1-D11)*(1-G11)*(1-H11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>23323</v>
+      </c>
+      <c r="K12">
+        <f>D12</f>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f>(1-D12)*G12*(1-H12)</f>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f>(1-D12)*(1-G12)*H12</f>
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <f>(1-D12)*G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f>(1-D12)*(1-G12)*(1-H12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>9653</v>
+      </c>
+      <c r="K13">
+        <f>D13</f>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f>(1-D13)*G13*(1-H13)</f>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f>(1-D13)*(1-G13)*H13</f>
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <f>(1-D13)*G13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f>(1-D13)*(1-G13)*(1-H13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>17522</v>
+      </c>
+      <c r="K14">
+        <f>D14</f>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f>(1-D14)*G14*(1-H14)</f>
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <f>(1-D14)*(1-G14)*H14</f>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f>(1-D14)*G14*H14</f>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f>(1-D14)*(1-G14)*(1-H14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>11501</v>
+      </c>
+      <c r="K15">
+        <f>D15</f>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f>(1-D15)*G15*(1-H15)</f>
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <f>(1-D15)*(1-G15)*H15</f>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f>(1-D15)*G15*H15</f>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f>(1-D15)*(1-G15)*(1-H15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>23782</v>
+      </c>
+      <c r="K16">
+        <f>D16</f>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f>(1-D16)*G16*(1-H16)</f>
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <f>(1-D16)*(1-G16)*H16</f>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f>(1-D16)*G16*H16</f>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f>(1-D16)*(1-G16)*(1-H16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>9866</v>
+      </c>
+      <c r="K17">
+        <f>D17</f>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f>(1-D17)*G17*(1-H17)</f>
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <f>(1-D17)*(1-G17)*H17</f>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f>(1-D17)*G17*H17</f>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f>(1-D17)*(1-G17)*(1-H17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>275</v>
+      </c>
+      <c r="K18">
+        <f>D18</f>
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <f>(1-D18)*G18*(1-H18)</f>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f>(1-D18)*(1-G18)*H18</f>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f>(1-D18)*G18*H18</f>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f>(1-D18)*(1-G18)*(1-H18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>283</v>
+      </c>
+      <c r="K19">
+        <f>D19</f>
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <f>(1-D19)*G19*(1-H19)</f>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f>(1-D19)*(1-G19)*H19</f>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f>(1-D19)*G19*H19</f>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f>(1-D19)*(1-G19)*(1-H19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>243</v>
+      </c>
+      <c r="K20">
+        <f>D20</f>
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <f>(1-D20)*G20*(1-H20)</f>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f>(1-D20)*(1-G20)*H20</f>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f>(1-D20)*G20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f>(1-D20)*(1-G20)*(1-H20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>308</v>
+      </c>
+      <c r="K21">
+        <f>D21</f>
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <f>(1-D21)*G21*(1-H21)</f>
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f>(1-D21)*(1-G21)*H21</f>
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <f>(1-D21)*G21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f>(1-D21)*(1-G21)*(1-H21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>244</v>
+      </c>
+      <c r="K22">
+        <f>D22</f>
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <f>(1-D22)*G22*(1-H22)</f>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f>(1-D22)*(1-G22)*H22</f>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f>(1-D22)*G22*H22</f>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f>(1-D22)*(1-G22)*(1-H22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>231</v>
+      </c>
+      <c r="K23">
+        <f>D23</f>
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <f>(1-D23)*G23*(1-H23)</f>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f>(1-D23)*(1-G23)*H23</f>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f>(1-D23)*G23*H23</f>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f>(1-D23)*(1-G23)*(1-H23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>257</v>
+      </c>
+      <c r="K24">
+        <f>D24</f>
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <f>(1-D24)*G24*(1-H24)</f>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f>(1-D24)*(1-G24)*H24</f>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f>(1-D24)*G24*H24</f>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f>(1-D24)*(1-G24)*(1-H24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>277</v>
+      </c>
+      <c r="K25">
+        <f>D25</f>
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <f>(1-D25)*G25*(1-H25)</f>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f>(1-D25)*(1-G25)*H25</f>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f>(1-D25)*G25*H25</f>
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f>(1-D25)*(1-G25)*(1-H25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <f>I2</f>
+        <v>15030</v>
+      </c>
+      <c r="D28">
+        <f>I6</f>
+        <v>17288</v>
+      </c>
+      <c r="E28">
+        <f>I10</f>
+        <v>17664</v>
+      </c>
+      <c r="F28">
+        <f>I14</f>
+        <v>17522</v>
+      </c>
+      <c r="H28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="7">
+        <f>MAX(B36+B35,C35+C36,D35+D36,E35+E36,F35+F36)</f>
+        <v>0.53689904421502765</v>
+      </c>
+      <c r="J28" s="7">
+        <f>1-MAX(B33:F33)</f>
+        <v>0.71603568844948162</v>
+      </c>
+      <c r="L28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <f>SUM(I18:I21)</f>
+        <v>1109</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:C31" si="0">I3</f>
+        <v>13716</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D29:D31" si="1">I7</f>
+        <v>14746</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ref="E29:E31" si="2">I11</f>
+        <v>11565</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ref="F29:F31" si="3">I15</f>
+        <v>11501</v>
+      </c>
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="7">
+        <f>MAX(B36:F36)</f>
+        <v>0.47639282341831918</v>
+      </c>
+      <c r="J29" s="7">
+        <f>MIN(B36+B35,C35+C36,D35+D36,E35+E36,F35+F36)</f>
+        <v>0.47639282341831918</v>
+      </c>
+      <c r="L29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>20027</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>23106</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>23323</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>23782</v>
+      </c>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <f>SUM(I22:I25)</f>
+        <v>1009</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>11673</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>12074</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>9653</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>9866</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="11">
+        <f>SUM(B28:B31)</f>
+        <v>2118</v>
+      </c>
+      <c r="C32" s="11">
+        <f t="shared" ref="C32:F32" si="4">SUM(C28:C31)</f>
+        <v>60446</v>
+      </c>
+      <c r="D32" s="11">
+        <f t="shared" si="4"/>
+        <v>67214</v>
+      </c>
+      <c r="E32" s="11">
+        <f t="shared" si="4"/>
+        <v>62205</v>
+      </c>
+      <c r="F32" s="11">
+        <f t="shared" si="4"/>
+        <v>62671</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="10">
+        <f>MAX(J18,J24)</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="10">
+        <f>MIN(J18+J19,J24+J25)</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M32" s="9">
+        <v>0.37147950000000002</v>
+      </c>
+      <c r="N32" s="9">
+        <v>0.52674080000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <f>B28/B$32</f>
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:F33" si="5">C28/C$32</f>
+        <v>0.24865168911094199</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="5"/>
+        <v>0.25720831969530156</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="5"/>
+        <v>0.28396431155051843</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="5"/>
+        <v>0.27958704983166055</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="10">
+        <f>MAX(J19+J18,J25+J24)</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="10">
+        <f>MIN(J16+J18+J19,J22+J24+J25)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M33" s="9">
+        <v>0.52976509999999999</v>
+      </c>
+      <c r="N33" s="9">
+        <v>0.77685899999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34:F34" si="6">B29/B$32</f>
+        <v>0.52360717658168088</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="6"/>
+        <v>0.22691327796711114</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="6"/>
+        <v>0.21938881780581426</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="6"/>
+        <v>0.18591753074511697</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="6"/>
+        <v>0.18351390595331174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ref="B35:F35" si="7">B30/B$32</f>
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="7"/>
+        <v>0.33132051748668234</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="7"/>
+        <v>0.34376766745023357</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="7"/>
+        <v>0.37493770597218873</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="7"/>
+        <v>0.3794737597932058</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ref="B36:F36" si="8">B31/B$32</f>
+        <v>0.47639282341831918</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="8"/>
+        <v>0.19311451543526453</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="8"/>
+        <v>0.17963519504865058</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="8"/>
+        <v>0.15518045173217587</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="8"/>
+        <v>0.15742528442182188</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:O25">
+    <sortCondition ref="K2:K25"/>
+    <sortCondition ref="L2:L25"/>
+    <sortCondition ref="M2:M25"/>
+    <sortCondition ref="N2:N25"/>
+    <sortCondition ref="O2:O25"/>
+    <sortCondition ref="B2:B25"/>
+    <sortCondition ref="C2:C25"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Coding/Save results.xlsx
+++ b/Coding/Save results.xlsx
@@ -4521,10 +4521,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+      <selection activeCell="P28" sqref="P28:P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>18</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>9</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>10</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>11</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>12</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -5822,8 +5822,9 @@
       <c r="L28" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P28" s="7"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -5861,8 +5862,9 @@
       <c r="L29" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P29" s="7"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -5888,7 +5890,7 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -5932,7 +5934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
         <f>SUM(B28:B31)</f>
         <v>2118</v>

--- a/Coding/Save results.xlsx
+++ b/Coding/Save results.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\econ-fs\Home3\zctpep9\GitHub\Covariatesets\Coding\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11985" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11985" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment 1" sheetId="1" r:id="rId1"/>
@@ -15,8 +20,9 @@
     <sheet name="Experiment 6" sheetId="6" r:id="rId6"/>
     <sheet name="Experiment 7" sheetId="7" r:id="rId7"/>
     <sheet name="Experiment 8" sheetId="8" r:id="rId8"/>
+    <sheet name="Outputs" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="100">
   <si>
     <t>Y</t>
   </si>
@@ -134,6 +140,198 @@
   </si>
   <si>
     <t>girl2</t>
+  </si>
+  <si>
+    <t>&gt; rho.0_lowerbound</t>
+  </si>
+  <si>
+    <t>[1] 0.5335213</t>
+  </si>
+  <si>
+    <t>&gt; rho.0_upperbound</t>
+  </si>
+  <si>
+    <t>[1] 0.7182325</t>
+  </si>
+  <si>
+    <t>&gt; L.RHO.0</t>
+  </si>
+  <si>
+    <t>&gt; U.RHO.0</t>
+  </si>
+  <si>
+    <t>&gt; rho.0andrho.1_lowerbound</t>
+  </si>
+  <si>
+    <t>[1] 0.4763928</t>
+  </si>
+  <si>
+    <t>&gt; rho.0andrho.1_upperbound</t>
+  </si>
+  <si>
+    <t>&gt; L.RHO.01</t>
+  </si>
+  <si>
+    <t>&gt; U.RHO.01</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>1b</t>
+  </si>
+  <si>
+    <t>2a</t>
+  </si>
+  <si>
+    <t>2b</t>
+  </si>
+  <si>
+    <t>3a</t>
+  </si>
+  <si>
+    <t>3b</t>
+  </si>
+  <si>
+    <t>4a</t>
+  </si>
+  <si>
+    <t>4b</t>
+  </si>
+  <si>
+    <t>5a</t>
+  </si>
+  <si>
+    <t>[1] 0.5314473</t>
+  </si>
+  <si>
+    <t>[1] 0.7204454</t>
+  </si>
+  <si>
+    <t>[1] 0.4579961</t>
+  </si>
+  <si>
+    <t>[1] 0.5007079</t>
+  </si>
+  <si>
+    <t>[1] 0.529994</t>
+  </si>
+  <si>
+    <t>[1] 0.7210278</t>
+  </si>
+  <si>
+    <t>[1] 0.4579735</t>
+  </si>
+  <si>
+    <t>[1] 0.500736</t>
+  </si>
+  <si>
+    <t>[1] 0.5261726</t>
+  </si>
+  <si>
+    <t>[1] 0.7346616</t>
+  </si>
+  <si>
+    <t>[1] 0.4579688</t>
+  </si>
+  <si>
+    <t>[1] 0.5007247</t>
+  </si>
+  <si>
+    <t>5b</t>
+  </si>
+  <si>
+    <t>[1] 0.3716402</t>
+  </si>
+  <si>
+    <t>[1] 0.5282133</t>
+  </si>
+  <si>
+    <t>[1] 0.5307584</t>
+  </si>
+  <si>
+    <t>[1] 0.7750525</t>
+  </si>
+  <si>
+    <t>[1] 0.7227828</t>
+  </si>
+  <si>
+    <t>[1] 0.1923077</t>
+  </si>
+  <si>
+    <t>[1] 0.3710991</t>
+  </si>
+  <si>
+    <t>[1] 0.5280302</t>
+  </si>
+  <si>
+    <t>[1] 0.5300676</t>
+  </si>
+  <si>
+    <t>[1] 0.7750515</t>
+  </si>
+  <si>
+    <t>[1] 0.5292051</t>
+  </si>
+  <si>
+    <t>[1] 0.7233322</t>
+  </si>
+  <si>
+    <t>[1] 0.1919179</t>
+  </si>
+  <si>
+    <t>[1] 0.3600226</t>
+  </si>
+  <si>
+    <t>[1] 0.5293994</t>
+  </si>
+  <si>
+    <t>[1] 0.5266034</t>
+  </si>
+  <si>
+    <t>[1] 0.774639</t>
+  </si>
+  <si>
+    <t>[1] 0.7313554</t>
+  </si>
+  <si>
+    <t>[1] 0.1923051</t>
+  </si>
+  <si>
+    <t>[1] 0.3567929</t>
+  </si>
+  <si>
+    <t>[1] 0.5277602</t>
+  </si>
+  <si>
+    <t>[1] 0.5272382</t>
+  </si>
+  <si>
+    <t>[1] 0.7814491</t>
+  </si>
+  <si>
+    <t>[1] 0.7335458</t>
+  </si>
+  <si>
+    <t>[1] 0.178906</t>
+  </si>
+  <si>
+    <t>[1] 0.3710999</t>
+  </si>
+  <si>
+    <t>[1] 0.5270986</t>
+  </si>
+  <si>
+    <t>[1] 0.5294033</t>
+  </si>
+  <si>
+    <t>[1] 0.7771765</t>
+  </si>
+  <si>
+    <t>[1] 0.7233314</t>
+  </si>
+  <si>
+    <t>[1] 0.18623</t>
   </si>
 </sst>
 </file>
@@ -497,7 +695,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3569,15 +3767,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="L29" sqref="L13:L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
         <v>17</v>
@@ -3592,7 +3790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3609,7 +3807,7 @@
         <v>67504</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3626,7 +3824,7 @@
         <v>51528</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3643,7 +3841,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3660,7 +3858,7 @@
         <v>90238</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3677,7 +3875,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3694,11 +3892,11 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -3707,7 +3905,7 @@
         <v>252536</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -3720,7 +3918,7 @@
         <v>0.26730446352203252</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -3733,7 +3931,7 @@
         <v>0.20404219596413978</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -3745,8 +3943,9 @@
         <f t="shared" si="0"/>
         <v>0.35732727215129723</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -3758,12 +3957,14 @@
         <f t="shared" si="0"/>
         <v>0.1713260683625305</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -3772,8 +3973,9 @@
         <v>2118</v>
       </c>
       <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -3784,8 +3986,9 @@
         <f>B18/$B$17</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -3797,8 +4000,9 @@
         <f t="shared" ref="C19:C21" si="1">B19/$B$17</f>
         <v>0.52360717658168088</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -3809,8 +4013,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -3822,12 +4027,14 @@
         <f t="shared" si="1"/>
         <v>0.47639282341831918</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -3846,8 +4053,9 @@
       <c r="G23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -3862,8 +4070,15 @@
       <c r="E24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>0.52642809999999995</v>
+      </c>
+      <c r="G24">
+        <v>0.73441449999999997</v>
+      </c>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -3878,12 +4093,20 @@
       <c r="E25" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>0.46028180000000002</v>
+      </c>
+      <c r="G25">
+        <v>0.49767</v>
+      </c>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>15</v>
       </c>
@@ -3903,8 +4126,9 @@
       <c r="G27" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>13</v>
       </c>
@@ -3922,8 +4146,9 @@
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>14</v>
       </c>
@@ -3941,6 +4166,7 @@
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
+      <c r="L29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3950,15 +4176,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="R16" sqref="Q16:R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
         <v>17</v>
@@ -3976,7 +4202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3996,7 +4222,7 @@
         <v>35186</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4016,7 +4242,7 @@
         <v>32318</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4036,7 +4262,7 @@
         <v>23066</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4056,7 +4282,7 @@
         <v>28462</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4076,7 +4302,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4096,7 +4322,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4116,7 +4342,7 @@
         <v>47105</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4136,7 +4362,7 @@
         <v>43133</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4156,7 +4382,7 @@
         <v>19519</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4176,7 +4402,7 @@
         <v>23747</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4196,7 +4422,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4216,7 +4442,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -4243,7 +4469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -4269,8 +4495,15 @@
       <c r="I16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>0.53035770000000004</v>
+      </c>
+      <c r="K16">
+        <v>0.72067530000000002</v>
+      </c>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -4296,8 +4529,15 @@
       <c r="I17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>0.46028980000000003</v>
+      </c>
+      <c r="K17">
+        <v>0.49767470000000003</v>
+      </c>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -4311,8 +4551,9 @@
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -4343,8 +4584,9 @@
       <c r="K19" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" s="7"/>
       <c r="E20" s="9" t="s">
@@ -4364,8 +4606,9 @@
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -4391,8 +4634,9 @@
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -4404,8 +4648,9 @@
         <f>B22/$B$21</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -4417,8 +4662,9 @@
         <f t="shared" ref="C23:C25" si="1">B23/$B$21</f>
         <v>0.52360717658168088</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -4429,8 +4675,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Q24" s="6"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -4442,11 +4689,13 @@
         <f t="shared" si="1"/>
         <v>0.47639282341831918</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C26" s="7"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -4455,8 +4704,9 @@
         <v>127660</v>
       </c>
       <c r="C27" s="7"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -4468,8 +4718,9 @@
         <f>B28/$B$27</f>
         <v>0.25315682281059065</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Q28" s="6"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -4481,8 +4732,9 @@
         <f t="shared" ref="C29:C31" si="2">B29/$B$27</f>
         <v>0.22295159016136612</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -4494,8 +4746,9 @@
         <f t="shared" si="2"/>
         <v>0.33787404041986524</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Q30" s="6"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -4507,8 +4760,9 @@
         <f t="shared" si="2"/>
         <v>0.18601754660817799</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C32" s="7"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
@@ -4521,15 +4775,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28:P29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T14" sqref="T14:T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
         <v>17</v>
@@ -4571,7 +4825,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>3</v>
       </c>
@@ -4600,27 +4854,27 @@
         <v>15030</v>
       </c>
       <c r="K2">
-        <f>D2</f>
+        <f t="shared" ref="K2:K25" si="0">D2</f>
         <v>0</v>
       </c>
       <c r="L2">
-        <f>(1-D2)*G2*(1-H2)</f>
+        <f t="shared" ref="L2:L25" si="1">(1-D2)*G2*(1-H2)</f>
         <v>0</v>
       </c>
       <c r="M2">
-        <f>(1-D2)*(1-G2)*H2</f>
+        <f t="shared" ref="M2:M25" si="2">(1-D2)*(1-G2)*H2</f>
         <v>0</v>
       </c>
       <c r="N2">
-        <f>(1-D2)*G2*H2</f>
+        <f t="shared" ref="N2:N25" si="3">(1-D2)*G2*H2</f>
         <v>0</v>
       </c>
       <c r="O2">
-        <f>(1-D2)*(1-G2)*(1-H2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="O2:O25" si="4">(1-D2)*(1-G2)*(1-H2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>7</v>
       </c>
@@ -4649,27 +4903,27 @@
         <v>13716</v>
       </c>
       <c r="K3">
-        <f>D3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L3">
-        <f>(1-D3)*G3*(1-H3)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M3">
-        <f>(1-D3)*(1-G3)*H3</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N3">
-        <f>(1-D3)*G3*H3</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O3">
-        <f>(1-D3)*(1-G3)*(1-H3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>15</v>
       </c>
@@ -4698,27 +4952,27 @@
         <v>20027</v>
       </c>
       <c r="K4">
-        <f>D4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L4">
-        <f>(1-D4)*G4*(1-H4)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M4">
-        <f>(1-D4)*(1-G4)*H4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>(1-D4)*G4*H4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O4">
-        <f>(1-D4)*(1-G4)*(1-H4)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>19</v>
       </c>
@@ -4747,27 +5001,27 @@
         <v>11673</v>
       </c>
       <c r="K5">
-        <f>D5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L5">
-        <f>(1-D5)*G5*(1-H5)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M5">
-        <f>(1-D5)*(1-G5)*H5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N5">
-        <f>(1-D5)*G5*H5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O5">
-        <f>(1-D5)*(1-G5)*(1-H5)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4796,27 +5050,27 @@
         <v>17288</v>
       </c>
       <c r="K6">
-        <f>D6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L6">
-        <f>(1-D6)*G6*(1-H6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M6">
-        <f>(1-D6)*(1-G6)*H6</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N6">
-        <f>(1-D6)*G6*H6</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O6">
-        <f>(1-D6)*(1-G6)*(1-H6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>8</v>
       </c>
@@ -4845,27 +5099,27 @@
         <v>14746</v>
       </c>
       <c r="K7">
-        <f>D7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L7">
-        <f>(1-D7)*G7*(1-H7)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M7">
-        <f>(1-D7)*(1-G7)*H7</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N7">
-        <f>(1-D7)*G7*H7</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O7">
-        <f>(1-D7)*(1-G7)*(1-H7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>16</v>
       </c>
@@ -4894,27 +5148,27 @@
         <v>23106</v>
       </c>
       <c r="K8">
-        <f>D8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L8">
-        <f>(1-D8)*G8*(1-H8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M8">
-        <f>(1-D8)*(1-G8)*H8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N8">
-        <f>(1-D8)*G8*H8</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O8">
-        <f>(1-D8)*(1-G8)*(1-H8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>20</v>
       </c>
@@ -4943,27 +5197,27 @@
         <v>12074</v>
       </c>
       <c r="K9">
-        <f>D9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L9">
-        <f>(1-D9)*G9*(1-H9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M9">
-        <f>(1-D9)*(1-G9)*H9</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N9">
-        <f>(1-D9)*G9*H9</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O9">
-        <f>(1-D9)*(1-G9)*(1-H9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -4992,27 +5246,27 @@
         <v>17664</v>
       </c>
       <c r="K10">
-        <f>D10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L10">
-        <f>(1-D10)*G10*(1-H10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M10">
-        <f>(1-D10)*(1-G10)*H10</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N10">
-        <f>(1-D10)*G10*H10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O10">
-        <f>(1-D10)*(1-G10)*(1-H10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>5</v>
       </c>
@@ -5041,27 +5295,27 @@
         <v>11565</v>
       </c>
       <c r="K11">
-        <f>D11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L11">
-        <f>(1-D11)*G11*(1-H11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M11">
-        <f>(1-D11)*(1-G11)*H11</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N11">
-        <f>(1-D11)*G11*H11</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O11">
-        <f>(1-D11)*(1-G11)*(1-H11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>13</v>
       </c>
@@ -5090,27 +5344,27 @@
         <v>23323</v>
       </c>
       <c r="K12">
-        <f>D12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L12">
-        <f>(1-D12)*G12*(1-H12)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M12">
-        <f>(1-D12)*(1-G12)*H12</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N12">
-        <f>(1-D12)*G12*H12</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O12">
-        <f>(1-D12)*(1-G12)*(1-H12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>17</v>
       </c>
@@ -5139,27 +5393,27 @@
         <v>9653</v>
       </c>
       <c r="K13">
-        <f>D13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L13">
-        <f>(1-D13)*G13*(1-H13)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M13">
-        <f>(1-D13)*(1-G13)*H13</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N13">
-        <f>(1-D13)*G13*H13</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O13">
-        <f>(1-D13)*(1-G13)*(1-H13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -5188,27 +5442,28 @@
         <v>17522</v>
       </c>
       <c r="K14">
-        <f>D14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L14">
-        <f>(1-D14)*G14*(1-H14)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M14">
-        <f>(1-D14)*(1-G14)*H14</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N14">
-        <f>(1-D14)*G14*H14</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O14">
-        <f>(1-D14)*(1-G14)*(1-H14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="6"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>6</v>
       </c>
@@ -5237,27 +5492,28 @@
         <v>11501</v>
       </c>
       <c r="K15">
-        <f>D15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L15">
-        <f>(1-D15)*G15*(1-H15)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M15">
-        <f>(1-D15)*(1-G15)*H15</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N15">
-        <f>(1-D15)*G15*H15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O15">
-        <f>(1-D15)*(1-G15)*(1-H15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5286,27 +5542,28 @@
         <v>23782</v>
       </c>
       <c r="K16">
-        <f>D16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L16">
-        <f>(1-D16)*G16*(1-H16)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M16">
-        <f>(1-D16)*(1-G16)*H16</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N16">
-        <f>(1-D16)*G16*H16</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O16">
-        <f>(1-D16)*(1-G16)*(1-H16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="6"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>18</v>
       </c>
@@ -5335,27 +5592,28 @@
         <v>9866</v>
       </c>
       <c r="K17">
-        <f>D17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L17">
-        <f>(1-D17)*G17*(1-H17)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M17">
-        <f>(1-D17)*(1-G17)*H17</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N17">
-        <f>(1-D17)*G17*H17</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O17">
-        <f>(1-D17)*(1-G17)*(1-H17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>9</v>
       </c>
@@ -5384,27 +5642,28 @@
         <v>275</v>
       </c>
       <c r="K18">
-        <f>D18</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L18">
-        <f>(1-D18)*G18*(1-H18)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M18">
-        <f>(1-D18)*(1-G18)*H18</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N18">
-        <f>(1-D18)*G18*H18</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O18">
-        <f>(1-D18)*(1-G18)*(1-H18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="6"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>10</v>
       </c>
@@ -5433,27 +5692,28 @@
         <v>283</v>
       </c>
       <c r="K19">
-        <f>D19</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L19">
-        <f>(1-D19)*G19*(1-H19)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M19">
-        <f>(1-D19)*(1-G19)*H19</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N19">
-        <f>(1-D19)*G19*H19</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O19">
-        <f>(1-D19)*(1-G19)*(1-H19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>11</v>
       </c>
@@ -5482,27 +5742,28 @@
         <v>243</v>
       </c>
       <c r="K20">
-        <f>D20</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L20">
-        <f>(1-D20)*G20*(1-H20)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M20">
-        <f>(1-D20)*(1-G20)*H20</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N20">
-        <f>(1-D20)*G20*H20</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O20">
-        <f>(1-D20)*(1-G20)*(1-H20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="6"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>12</v>
       </c>
@@ -5531,27 +5792,28 @@
         <v>308</v>
       </c>
       <c r="K21">
-        <f>D21</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L21">
-        <f>(1-D21)*G21*(1-H21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M21">
-        <f>(1-D21)*(1-G21)*H21</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N21">
-        <f>(1-D21)*G21*H21</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O21">
-        <f>(1-D21)*(1-G21)*(1-H21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="1"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -5580,27 +5842,28 @@
         <v>244</v>
       </c>
       <c r="K22">
-        <f>D22</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L22">
-        <f>(1-D22)*G22*(1-H22)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M22">
-        <f>(1-D22)*(1-G22)*H22</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N22">
-        <f>(1-D22)*G22*H22</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O22">
-        <f>(1-D22)*(1-G22)*(1-H22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="6"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -5629,27 +5892,28 @@
         <v>231</v>
       </c>
       <c r="K23">
-        <f>D23</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L23">
-        <f>(1-D23)*G23*(1-H23)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M23">
-        <f>(1-D23)*(1-G23)*H23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N23">
-        <f>(1-D23)*G23*H23</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O23">
-        <f>(1-D23)*(1-G23)*(1-H23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="1"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -5678,27 +5942,28 @@
         <v>257</v>
       </c>
       <c r="K24">
-        <f>D24</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L24">
-        <f>(1-D24)*G24*(1-H24)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M24">
-        <f>(1-D24)*(1-G24)*H24</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N24">
-        <f>(1-D24)*G24*H24</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O24">
-        <f>(1-D24)*(1-G24)*(1-H24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="6"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -5727,27 +5992,31 @@
         <v>277</v>
       </c>
       <c r="K25">
-        <f>D25</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L25">
-        <f>(1-D25)*G25*(1-H25)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M25">
-        <f>(1-D25)*(1-G25)*H25</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N25">
-        <f>(1-D25)*G25*H25</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O25">
-        <f>(1-D25)*(1-G25)*(1-H25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="1"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T26" s="6"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -5784,8 +6053,9 @@
       <c r="N27" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T27" s="1"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -5822,9 +6092,16 @@
       <c r="L28" t="s">
         <v>13</v>
       </c>
+      <c r="M28">
+        <v>0.53192510000000004</v>
+      </c>
+      <c r="N28">
+        <v>0.71999100000000005</v>
+      </c>
       <c r="P28" s="7"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T28" s="6"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -5833,19 +6110,19 @@
         <v>1109</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C29:C31" si="0">I3</f>
+        <f t="shared" ref="C29:C31" si="5">I3</f>
         <v>13716</v>
       </c>
       <c r="D29">
-        <f t="shared" ref="D29:D31" si="1">I7</f>
+        <f t="shared" ref="D29:D31" si="6">I7</f>
         <v>14746</v>
       </c>
       <c r="E29">
-        <f t="shared" ref="E29:E31" si="2">I11</f>
+        <f t="shared" ref="E29:E31" si="7">I11</f>
         <v>11565</v>
       </c>
       <c r="F29">
-        <f t="shared" ref="F29:F31" si="3">I15</f>
+        <f t="shared" ref="F29:F31" si="8">I15</f>
         <v>11501</v>
       </c>
       <c r="H29" t="s">
@@ -5862,9 +6139,16 @@
       <c r="L29" t="s">
         <v>14</v>
       </c>
+      <c r="M29">
+        <v>0.46030480000000001</v>
+      </c>
+      <c r="N29">
+        <v>0.4976564</v>
+      </c>
       <c r="P29" s="7"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T29" s="1"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -5872,25 +6156,25 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>20027</v>
       </c>
       <c r="D30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>23106</v>
       </c>
       <c r="E30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>23323</v>
       </c>
       <c r="F30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>23782</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -5899,19 +6183,19 @@
         <v>1009</v>
       </c>
       <c r="C31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>11673</v>
       </c>
       <c r="D31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>12074</v>
       </c>
       <c r="E31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>9653</v>
       </c>
       <c r="F31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>9866</v>
       </c>
       <c r="H31" s="9" t="s">
@@ -5934,25 +6218,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
         <f>SUM(B28:B31)</f>
         <v>2118</v>
       </c>
       <c r="C32" s="11">
-        <f t="shared" ref="C32:F32" si="4">SUM(C28:C31)</f>
+        <f t="shared" ref="C32:F32" si="9">SUM(C28:C31)</f>
         <v>60446</v>
       </c>
       <c r="D32" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>67214</v>
       </c>
       <c r="E32" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>62205</v>
       </c>
       <c r="F32" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>62671</v>
       </c>
       <c r="H32" s="9" t="s">
@@ -5986,19 +6270,19 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <f t="shared" ref="C33:F33" si="5">C28/C$32</f>
+        <f t="shared" ref="C33:F33" si="10">C28/C$32</f>
         <v>0.24865168911094199</v>
       </c>
       <c r="D33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.25720831969530156</v>
       </c>
       <c r="E33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.28396431155051843</v>
       </c>
       <c r="F33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.27958704983166055</v>
       </c>
       <c r="H33" s="9" t="s">
@@ -6028,23 +6312,23 @@
         <v>6</v>
       </c>
       <c r="B34">
-        <f t="shared" ref="B34:F34" si="6">B29/B$32</f>
+        <f t="shared" ref="B34:F34" si="11">B29/B$32</f>
         <v>0.52360717658168088</v>
       </c>
       <c r="C34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.22691327796711114</v>
       </c>
       <c r="D34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.21938881780581426</v>
       </c>
       <c r="E34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.18591753074511697</v>
       </c>
       <c r="F34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.18351390595331174</v>
       </c>
     </row>
@@ -6053,23 +6337,23 @@
         <v>8</v>
       </c>
       <c r="B35">
-        <f t="shared" ref="B35:F35" si="7">B30/B$32</f>
+        <f t="shared" ref="B35:F35" si="12">B30/B$32</f>
         <v>0</v>
       </c>
       <c r="C35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.33132051748668234</v>
       </c>
       <c r="D35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.34376766745023357</v>
       </c>
       <c r="E35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.37493770597218873</v>
       </c>
       <c r="F35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.3794737597932058</v>
       </c>
     </row>
@@ -6078,23 +6362,23 @@
         <v>7</v>
       </c>
       <c r="B36">
-        <f t="shared" ref="B36:F36" si="8">B31/B$32</f>
+        <f t="shared" ref="B36:F36" si="13">B31/B$32</f>
         <v>0.47639282341831918</v>
       </c>
       <c r="C36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.19311451543526453</v>
       </c>
       <c r="D36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.17963519504865058</v>
       </c>
       <c r="E36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.15518045173217587</v>
       </c>
       <c r="F36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.15742528442182188</v>
       </c>
     </row>
@@ -6110,4 +6394,726 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="13" width="31.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1">
+        <v>6</v>
+      </c>
+      <c r="L1">
+        <v>7</v>
+      </c>
+      <c r="M1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F19" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Coding/Save results.xlsx
+++ b/Coding/Save results.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\econ-fs\Home3\zctpep9\GitHub\Covariatesets\Coding\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11985" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11985" tabRatio="684" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment 1" sheetId="1" r:id="rId1"/>
@@ -22,7 +17,7 @@
     <sheet name="Experiment 8" sheetId="8" r:id="rId8"/>
     <sheet name="Outputs" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="50">
   <si>
     <t>Y</t>
   </si>
@@ -142,39 +137,6 @@
     <t>girl2</t>
   </si>
   <si>
-    <t>&gt; rho.0_lowerbound</t>
-  </si>
-  <si>
-    <t>[1] 0.5335213</t>
-  </si>
-  <si>
-    <t>&gt; rho.0_upperbound</t>
-  </si>
-  <si>
-    <t>[1] 0.7182325</t>
-  </si>
-  <si>
-    <t>&gt; L.RHO.0</t>
-  </si>
-  <si>
-    <t>&gt; U.RHO.0</t>
-  </si>
-  <si>
-    <t>&gt; rho.0andrho.1_lowerbound</t>
-  </si>
-  <si>
-    <t>[1] 0.4763928</t>
-  </si>
-  <si>
-    <t>&gt; rho.0andrho.1_upperbound</t>
-  </si>
-  <si>
-    <t>&gt; L.RHO.01</t>
-  </si>
-  <si>
-    <t>&gt; U.RHO.01</t>
-  </si>
-  <si>
     <t>1a</t>
   </si>
   <si>
@@ -202,144 +164,28 @@
     <t>5a</t>
   </si>
   <si>
-    <t>[1] 0.5314473</t>
-  </si>
-  <si>
-    <t>[1] 0.7204454</t>
-  </si>
-  <si>
-    <t>[1] 0.4579961</t>
-  </si>
-  <si>
-    <t>[1] 0.5007079</t>
-  </si>
-  <si>
-    <t>[1] 0.529994</t>
-  </si>
-  <si>
-    <t>[1] 0.7210278</t>
-  </si>
-  <si>
-    <t>[1] 0.4579735</t>
-  </si>
-  <si>
-    <t>[1] 0.500736</t>
-  </si>
-  <si>
-    <t>[1] 0.5261726</t>
-  </si>
-  <si>
-    <t>[1] 0.7346616</t>
-  </si>
-  <si>
-    <t>[1] 0.4579688</t>
-  </si>
-  <si>
-    <t>[1] 0.5007247</t>
-  </si>
-  <si>
     <t>5b</t>
   </si>
   <si>
-    <t>[1] 0.3716402</t>
+    <t>L.RHO.0</t>
   </si>
   <si>
-    <t>[1] 0.5282133</t>
+    <t>U.RHO.0</t>
   </si>
   <si>
-    <t>[1] 0.5307584</t>
+    <t>L.RHO.01</t>
   </si>
   <si>
-    <t>[1] 0.7750525</t>
-  </si>
-  <si>
-    <t>[1] 0.7227828</t>
-  </si>
-  <si>
-    <t>[1] 0.1923077</t>
-  </si>
-  <si>
-    <t>[1] 0.3710991</t>
-  </si>
-  <si>
-    <t>[1] 0.5280302</t>
-  </si>
-  <si>
-    <t>[1] 0.5300676</t>
-  </si>
-  <si>
-    <t>[1] 0.7750515</t>
-  </si>
-  <si>
-    <t>[1] 0.5292051</t>
-  </si>
-  <si>
-    <t>[1] 0.7233322</t>
-  </si>
-  <si>
-    <t>[1] 0.1919179</t>
-  </si>
-  <si>
-    <t>[1] 0.3600226</t>
-  </si>
-  <si>
-    <t>[1] 0.5293994</t>
-  </si>
-  <si>
-    <t>[1] 0.5266034</t>
-  </si>
-  <si>
-    <t>[1] 0.774639</t>
-  </si>
-  <si>
-    <t>[1] 0.7313554</t>
-  </si>
-  <si>
-    <t>[1] 0.1923051</t>
-  </si>
-  <si>
-    <t>[1] 0.3567929</t>
-  </si>
-  <si>
-    <t>[1] 0.5277602</t>
-  </si>
-  <si>
-    <t>[1] 0.5272382</t>
-  </si>
-  <si>
-    <t>[1] 0.7814491</t>
-  </si>
-  <si>
-    <t>[1] 0.7335458</t>
-  </si>
-  <si>
-    <t>[1] 0.178906</t>
-  </si>
-  <si>
-    <t>[1] 0.3710999</t>
-  </si>
-  <si>
-    <t>[1] 0.5270986</t>
-  </si>
-  <si>
-    <t>[1] 0.5294033</t>
-  </si>
-  <si>
-    <t>[1] 0.7771765</t>
-  </si>
-  <si>
-    <t>[1] 0.7233314</t>
-  </si>
-  <si>
-    <t>[1] 0.18623</t>
+    <t>U.RHO.01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -398,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -423,6 +269,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,7 +543,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -703,10 +551,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N31"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:G29"/>
+      <selection activeCell="B32" sqref="B32:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,21 +893,21 @@
       <c r="A24" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="12">
         <f>MAX(C14+C15,C20+C21)</f>
         <v>0.53291663026471503</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="12">
         <f>MIN(C13+C14+C15,C19+C20+C21)</f>
         <v>0.72054420255899099</v>
       </c>
       <c r="E24" t="s">
         <v>13</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="12">
         <v>0.52976509999999999</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="12">
         <v>0.72298099999999998</v>
       </c>
       <c r="I24" s="7"/>
@@ -1068,21 +919,21 @@
       <c r="A25" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="12">
         <f>MAX(C15,C21)</f>
         <v>0.18859761544137638</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="12">
         <f>MIN(C15+C14,C21+C20)</f>
         <v>0.52362421841624918</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="12">
         <v>0.1865272</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="12">
         <v>0.52674080000000001</v>
       </c>
       <c r="I25" s="7"/>
@@ -1091,8 +942,10 @@
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="M26" s="6"/>
@@ -1102,19 +955,19 @@
       <c r="A27" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E27" t="s">
         <v>16</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="12" t="s">
         <v>12</v>
       </c>
       <c r="I27" s="7"/>
@@ -1126,21 +979,21 @@
       <c r="A28" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="12">
         <f>MAX(C14,C20)</f>
         <v>0.37411940369632035</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="12">
         <f>MIN(C14+C15,C20+C21)</f>
         <v>0.52362421841624918</v>
       </c>
       <c r="E28" t="s">
         <v>13</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="12">
         <v>0.37147950000000002</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="12">
         <v>0.52674080000000001</v>
       </c>
       <c r="I28" s="7"/>
@@ -1152,21 +1005,21 @@
       <c r="A29" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="12">
         <f>MAX(C15+C14,C21+C20)</f>
         <v>0.53291663026471503</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="12">
         <f>MIN(C12+C14+C15,C18+C20+C21)</f>
         <v>0.7746475591285098</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="12">
         <v>0.52976509999999999</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="12">
         <v>0.77685899999999997</v>
       </c>
       <c r="I29" s="7"/>
@@ -1179,7 +1032,25 @@
       <c r="M30" s="6"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="12">
+        <f>B25-C24</f>
+        <v>-0.53194658711761456</v>
+      </c>
+      <c r="C31" s="12">
+        <f>C25-B24</f>
+        <v>-9.2924118484658536E-3</v>
+      </c>
       <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="12">
+        <f>B29-C28</f>
+        <v>9.2924118484658536E-3</v>
+      </c>
+      <c r="C32" s="12">
+        <f>C29-B28</f>
+        <v>0.40052815543218945</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1189,10 +1060,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:G29"/>
+      <selection activeCell="B32" sqref="B32:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1515,21 +1389,22 @@
       <c r="A24" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="12">
         <f>MAX(C14+C15,C20+C21)</f>
         <v>0.53012228733509947</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="12">
         <f>MIN(C13+C14+C15,C19+C20+C21)</f>
         <v>0.73125685692114206</v>
       </c>
-      <c r="E24" t="s">
+      <c r="D24" s="12"/>
+      <c r="E24" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="12">
         <v>0.52753519999999998</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="12">
         <v>0.73325799999999997</v>
       </c>
       <c r="K24" s="6"/>
@@ -1538,47 +1413,53 @@
       <c r="A25" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="12">
         <f>MAX(C15,C21)</f>
         <v>0.18217082847829613</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="12">
         <f>MIN(C15+C14,C21+C20)</f>
         <v>0.52297231522588827</v>
       </c>
-      <c r="E25" t="s">
+      <c r="D25" s="12"/>
+      <c r="E25" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="12">
         <v>0.1793159</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="12">
         <v>0.52726709999999999</v>
       </c>
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
       <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E27" t="s">
+      <c r="D27" s="12"/>
+      <c r="E27" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="12" t="s">
         <v>12</v>
       </c>
       <c r="K27" s="1"/>
@@ -1587,21 +1468,22 @@
       <c r="A28" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="12">
         <f>MAX(C14,C20)</f>
         <v>0.35927323325573307</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="12">
         <f>MIN(C14+C15,C20+C21)</f>
         <v>0.52297231522588827</v>
       </c>
-      <c r="E28" t="s">
+      <c r="D28" s="12"/>
+      <c r="E28" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="12">
         <v>0.3571047</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="12">
         <v>0.52726709999999999</v>
       </c>
       <c r="H28" s="7"/>
@@ -1612,41 +1494,70 @@
       <c r="A29" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="12">
         <f>MAX(C15+C14,C21+C20)</f>
         <v>0.53012228733509947</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="12">
         <f>MIN(C12+C14+C15,C18+C20+C21)</f>
         <v>0.77796132686322805</v>
       </c>
-      <c r="E29" t="s">
+      <c r="D29" s="12"/>
+      <c r="E29" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="12">
         <v>0.52753519999999998</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="12">
         <v>0.78101120000000002</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
     </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="12">
+        <f>B25-C24</f>
+        <v>-0.54908602844284593</v>
+      </c>
+      <c r="C31" s="12">
+        <f>C25-B24</f>
+        <v>-7.1499721092112001E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="12">
+        <f>B29-C28</f>
+        <v>7.1499721092112001E-3</v>
+      </c>
+      <c r="C32" s="12">
+        <f>C29-B28</f>
+        <v>0.41868809360749498</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S31"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="B32" sqref="B32:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
@@ -1974,21 +1885,22 @@
       <c r="A24" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="12">
         <f>MAX(C14+C15,C20+C21)</f>
         <v>0.52943605839717511</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="12">
         <f>MIN(C13+C14+C15,C19+C20+C21)</f>
         <v>0.72910772915935329</v>
       </c>
-      <c r="E24" t="s">
+      <c r="D24" s="12"/>
+      <c r="E24" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="12">
         <v>0.52689520000000001</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="12">
         <v>0.73107279999999997</v>
       </c>
       <c r="N24" s="6"/>
@@ -1998,29 +1910,34 @@
       <c r="A25" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="12">
         <f>MAX(C15,C21)</f>
         <v>0.1957470547697962</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="12">
         <f>MIN(C15+C14,C21+C20)</f>
         <v>0.52434942408033347</v>
       </c>
-      <c r="E25" t="s">
+      <c r="D25" s="12"/>
+      <c r="E25" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="12">
         <v>0.1927372</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="12">
         <v>0.52887930000000005</v>
       </c>
       <c r="N25" s="1"/>
       <c r="S25" s="3"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
       <c r="N26" s="6"/>
       <c r="S26" s="2"/>
     </row>
@@ -2028,19 +1945,20 @@
       <c r="A27" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E27" t="s">
+      <c r="D27" s="12"/>
+      <c r="E27" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="12" t="s">
         <v>12</v>
       </c>
       <c r="N27" s="1"/>
@@ -2050,21 +1968,22 @@
       <c r="A28" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="12">
         <f>MAX(C14,C20)</f>
         <v>0.3624579263633923</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="12">
         <f>MIN(C14+C15,C20+C21)</f>
         <v>0.52434942408033347</v>
       </c>
-      <c r="E28" t="s">
+      <c r="D28" s="12"/>
+      <c r="E28" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="12">
         <v>0.3603287</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="12">
         <v>0.52887930000000005</v>
       </c>
       <c r="N28" s="6"/>
@@ -2074,21 +1993,22 @@
       <c r="A29" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="12">
         <f>MAX(C15+C14,C21+C20)</f>
         <v>0.52943605839717511</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="12">
         <f>MIN(C12+C14+C15,C18+C20+C21)</f>
         <v>0.77096117874840031</v>
       </c>
-      <c r="E29" t="s">
+      <c r="D29" s="12"/>
+      <c r="E29" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="12">
         <v>0.52689520000000001</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="12">
         <v>0.77417729999999996</v>
       </c>
       <c r="N29" s="1"/>
@@ -2098,19 +2018,41 @@
       <c r="S30" s="4"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B31" s="12">
+        <f>B25-C24</f>
+        <v>-0.53336067438955714</v>
+      </c>
+      <c r="C31" s="12">
+        <f>C25-B24</f>
+        <v>-5.0866343168416428E-3</v>
+      </c>
       <c r="S31" s="5"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B32" s="12">
+        <f>B29-C28</f>
+        <v>5.0866343168416428E-3</v>
+      </c>
+      <c r="C32" s="12">
+        <f>C29-B28</f>
+        <v>0.40850325238500801</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="A15:C31"/>
+      <selection activeCell="F24" sqref="F24:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2471,21 +2413,22 @@
       <c r="E16" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="12">
         <f>MAX(C18+C19,C24+C25,C30+C31)</f>
         <v>0.53291663026471503</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="12">
         <f>1-MAX(C16,C22,C28)</f>
         <v>0.72054420255899099</v>
       </c>
-      <c r="I16" t="s">
+      <c r="H16" s="12"/>
+      <c r="I16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="12">
         <v>0.52955110000000005</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="12">
         <v>0.72298070000000003</v>
       </c>
       <c r="P16" s="1"/>
@@ -2506,21 +2449,22 @@
       <c r="E17" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="12">
         <f>MAX(C19,C25,C31)</f>
         <v>0.1957470547697962</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="12">
         <f>MIN(C18+C19,C24+C25,C30+C31)</f>
         <v>0.52297231522588827</v>
       </c>
-      <c r="I17" t="s">
+      <c r="H17" s="12"/>
+      <c r="I17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="12">
         <v>0.1923105</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="12">
         <v>0.52755870000000005</v>
       </c>
       <c r="P17" s="6"/>
@@ -2538,8 +2482,12 @@
         <f t="shared" si="1"/>
         <v>0.34080148674759214</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
       <c r="P18" s="1"/>
       <c r="T18" s="1"/>
     </row>
@@ -2558,19 +2506,20 @@
       <c r="E19" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I19" t="s">
+      <c r="H19" s="12"/>
+      <c r="I19" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="12" t="s">
         <v>12</v>
       </c>
       <c r="P19" s="6"/>
@@ -2582,21 +2531,22 @@
       <c r="E20" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="12">
         <f>MAX(C18,C24,C30)</f>
         <v>0.37411940369632035</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="12">
         <f>MIN(C19+C18,C24+C25,C30+C31)</f>
         <v>0.52297231522588827</v>
       </c>
-      <c r="I20" t="s">
+      <c r="H20" s="12"/>
+      <c r="I20" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="12">
         <v>0.37147989999999997</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="12">
         <v>0.52755870000000005</v>
       </c>
       <c r="P20" s="1"/>
@@ -2614,21 +2564,22 @@
       <c r="E21" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="12">
         <f>MAX(C18+C19,C24+C25,C30+C31)</f>
         <v>0.53291663026471503</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="12">
         <f>1-MAX(C17,C23,C29)</f>
         <v>0.7709611787484002</v>
       </c>
-      <c r="I21" t="s">
+      <c r="H21" s="12"/>
+      <c r="I21" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="12">
         <v>0.53036190000000005</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="12">
         <v>0.77463210000000005</v>
       </c>
       <c r="P21" s="6"/>
@@ -2661,6 +2612,14 @@
         <f t="shared" ref="C23:C25" si="2">B23/$B$21</f>
         <v>0.22903882125159977</v>
       </c>
+      <c r="F23" s="12">
+        <f>F17-G16</f>
+        <v>-0.52479714778919484</v>
+      </c>
+      <c r="G23" s="12">
+        <f>G17-F16</f>
+        <v>-9.9443150388267565E-3</v>
+      </c>
       <c r="P23" s="6"/>
       <c r="T23" s="6"/>
     </row>
@@ -2676,6 +2635,14 @@
         <f t="shared" si="2"/>
         <v>0.32860236931053721</v>
       </c>
+      <c r="F24" s="12">
+        <f>F21-G20</f>
+        <v>9.9443150388267565E-3</v>
+      </c>
+      <c r="G24" s="12">
+        <f>G21-F20</f>
+        <v>0.39684177505207985</v>
+      </c>
       <c r="P24" s="1"/>
       <c r="T24" s="1"/>
     </row>
@@ -2769,15 +2736,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="F28" sqref="F28:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3403,21 +3374,22 @@
       <c r="E20" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="12">
         <f>MAX(C22+C23,C28+C29,C34+C35,C40+C41)</f>
         <v>0.53618738624673579</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="12">
         <f>1-MAX(C20,C26,C32,C38)</f>
         <v>0.71838530705949877</v>
       </c>
-      <c r="I20" t="s">
+      <c r="H20" s="12"/>
+      <c r="I20" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="12">
         <v>0.53123339999999997</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="12">
         <v>0.72233040000000004</v>
       </c>
       <c r="Q20" s="1"/>
@@ -3438,21 +3410,22 @@
       <c r="E21" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="12">
         <f>MAX(C23,C29,C35,C41)</f>
         <v>0.1957470547697962</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="12">
         <f>MIN(C23+C22,C29+C28,C35+C34,C41+C40)</f>
         <v>0.52297231522588827</v>
       </c>
-      <c r="I21" t="s">
+      <c r="H21" s="12"/>
+      <c r="I21" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="12">
         <v>0.19273950000000001</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="12">
         <v>0.52775479999999997</v>
       </c>
       <c r="Q21" s="6"/>
@@ -3470,8 +3443,12 @@
         <f t="shared" si="2"/>
         <v>0.34080148674759214</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
       <c r="Q22" s="1"/>
       <c r="U22" s="1"/>
     </row>
@@ -3490,19 +3467,20 @@
       <c r="E23" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I23" t="s">
+      <c r="H23" s="12"/>
+      <c r="I23" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="12" t="s">
         <v>12</v>
       </c>
       <c r="Q23" s="6"/>
@@ -3514,21 +3492,22 @@
       <c r="E24" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="12">
         <f>MAX(C22,C28,C34,C40)</f>
         <v>0.37638680066471475</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="12">
         <f>MIN(C22+C23,C28+C29,C34+C35,C40+C41)</f>
         <v>0.52297231522588827</v>
       </c>
-      <c r="I24" t="s">
+      <c r="H24" s="12"/>
+      <c r="I24" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="12">
         <v>0.37212859999999998</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="12">
         <v>0.52775479999999997</v>
       </c>
       <c r="Q24" s="1"/>
@@ -3546,21 +3525,22 @@
       <c r="E25" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="12">
         <f>MAX(C22+C23,C28+C29,C34+C35,C40+C41)</f>
         <v>0.53618738624673579</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="12">
         <f>1-MAX(C21,C27,C33,C39)</f>
         <v>0.7709611787484002</v>
       </c>
-      <c r="I25" t="s">
+      <c r="H25" s="12"/>
+      <c r="I25" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="12">
         <v>0.53123339999999997</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="12">
         <v>0.77463130000000002</v>
       </c>
       <c r="Q25" s="6"/>
@@ -3593,6 +3573,14 @@
         <f t="shared" ref="C27:C29" si="3">B27/$B$25</f>
         <v>0.22903882125159977</v>
       </c>
+      <c r="F27" s="12">
+        <f>F21-G20</f>
+        <v>-0.52263825228970262</v>
+      </c>
+      <c r="G27" s="12">
+        <f>G21-F20</f>
+        <v>-1.3215071020847513E-2</v>
+      </c>
       <c r="Q27" s="6"/>
       <c r="U27" s="6"/>
     </row>
@@ -3608,6 +3596,14 @@
         <f t="shared" si="3"/>
         <v>0.32860236931053721</v>
       </c>
+      <c r="F28" s="12">
+        <f>F25-G24</f>
+        <v>1.3215071020847513E-2</v>
+      </c>
+      <c r="G28" s="12">
+        <f>G25-F24</f>
+        <v>0.39457437808368545</v>
+      </c>
       <c r="Q28" s="1"/>
       <c r="U28" s="1"/>
     </row>
@@ -3762,15 +3758,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="86" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L29" sqref="L13:L29"/>
+      <selection activeCell="I24" sqref="I24:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4059,22 +4059,31 @@
       <c r="A24" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="12">
         <f>MAX(C14+C15,C20+C21)</f>
         <v>0.52865334051382773</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="12">
         <f>MIN(C13+C14+C15,C19+C20+C21)</f>
         <v>0.73269553647796748</v>
       </c>
-      <c r="E24" t="s">
+      <c r="D24" s="12"/>
+      <c r="E24" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="12">
         <v>0.52642809999999995</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="12">
         <v>0.73441449999999997</v>
+      </c>
+      <c r="I24" s="12">
+        <f>B25-C24</f>
+        <v>-0.2563027130596483</v>
+      </c>
+      <c r="J24" s="12">
+        <f>C25-B24</f>
+        <v>-5.2260517095508552E-2</v>
       </c>
       <c r="L24" s="6"/>
     </row>
@@ -4082,21 +4091,22 @@
       <c r="A25" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="12">
         <f>MAX(C15,C21)</f>
         <v>0.47639282341831918</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="12">
         <f>MIN(C15+C14,C21+C20)</f>
         <v>0.47639282341831918</v>
       </c>
-      <c r="E25" t="s">
+      <c r="D25" s="12"/>
+      <c r="E25" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="12">
         <v>0.46028180000000002</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="12">
         <v>0.49767</v>
       </c>
       <c r="L25" s="1"/>
@@ -4176,10 +4186,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R16" sqref="Q16:R34"/>
+      <selection activeCell="M16" sqref="M16:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4484,22 +4497,31 @@
       <c r="E16" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="12">
         <f>MAX(C18+C19,C24+C25,C30+C31)</f>
         <v>0.53352125308305842</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="12">
         <f>1-MAX(C16,C22,C28)</f>
         <v>0.71823248662673378</v>
       </c>
-      <c r="I16" t="s">
+      <c r="H16" s="12"/>
+      <c r="I16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="12">
         <v>0.53035770000000004</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="12">
         <v>0.72067530000000002</v>
+      </c>
+      <c r="M16" s="12">
+        <f>F17-G16</f>
+        <v>-0.2418396632084146</v>
+      </c>
+      <c r="N16" s="12">
+        <f>G17-F16</f>
+        <v>-5.7128429664739244E-2</v>
       </c>
       <c r="Q16" s="6"/>
     </row>
@@ -4518,21 +4540,22 @@
       <c r="E17" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="12">
         <f>MAX(C19,C25,C31)</f>
         <v>0.47639282341831918</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="12">
         <f>MIN(C18+C19,C24+C25,C30+C31)</f>
         <v>0.47639282341831918</v>
       </c>
-      <c r="I17" t="s">
+      <c r="H17" s="12"/>
+      <c r="I17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="12">
         <v>0.46028980000000003</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="12">
         <v>0.49767470000000003</v>
       </c>
       <c r="Q17" s="1"/>
@@ -4770,15 +4793,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T14" sqref="T14:T29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28:Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6081,24 +6108,32 @@
       <c r="H28" t="s">
         <v>13</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="12">
         <f>MAX(B36+B35,C35+C36,D35+D36,E35+E36,F35+F36)</f>
         <v>0.53689904421502765</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="12">
         <f>1-MAX(B33:F33)</f>
         <v>0.71603568844948162</v>
       </c>
-      <c r="L28" t="s">
+      <c r="K28" s="12"/>
+      <c r="L28" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="12">
         <v>0.53192510000000004</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="12">
         <v>0.71999100000000005</v>
       </c>
-      <c r="P28" s="7"/>
+      <c r="P28" s="12">
+        <f>I29-J28</f>
+        <v>-0.23964286503116244</v>
+      </c>
+      <c r="Q28" s="12">
+        <f>J29-I28</f>
+        <v>-6.0506220796708476E-2</v>
+      </c>
       <c r="T28" s="6"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -6128,21 +6163,22 @@
       <c r="H29" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="12">
         <f>MAX(B36:F36)</f>
         <v>0.47639282341831918</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="12">
         <f>MIN(B36+B35,C35+C36,D35+D36,E35+E36,F35+F36)</f>
         <v>0.47639282341831918</v>
       </c>
-      <c r="L29" t="s">
+      <c r="K29" s="12"/>
+      <c r="L29" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="12">
         <v>0.46030480000000001</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="12">
         <v>0.4976564</v>
       </c>
       <c r="P29" s="7"/>
@@ -6171,8 +6207,12 @@
         <f t="shared" si="8"/>
         <v>23782</v>
       </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -6201,20 +6241,20 @@
       <c r="H31" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="I31" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9" t="s">
+      <c r="K31" s="13"/>
+      <c r="L31" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="M31" s="9" t="s">
+      <c r="M31" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="N31" s="9" t="s">
+      <c r="N31" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6242,22 +6282,22 @@
       <c r="H32" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32" s="13">
         <f>MAX(J18,J24)</f>
         <v>0</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="13">
         <f>MIN(J18+J19,J24+J25)</f>
         <v>0</v>
       </c>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9" t="s">
+      <c r="K32" s="13"/>
+      <c r="L32" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M32" s="9">
+      <c r="M32" s="13">
         <v>0.37147950000000002</v>
       </c>
-      <c r="N32" s="9">
+      <c r="N32" s="13">
         <v>0.52674080000000001</v>
       </c>
     </row>
@@ -6288,22 +6328,22 @@
       <c r="H33" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I33" s="13">
         <f>MAX(J19+J18,J25+J24)</f>
         <v>0</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J33" s="13">
         <f>MIN(J16+J18+J19,J22+J24+J25)</f>
         <v>0</v>
       </c>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9" t="s">
+      <c r="K33" s="13"/>
+      <c r="L33" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="M33" s="9">
+      <c r="M33" s="13">
         <v>0.52976509999999999</v>
       </c>
-      <c r="N33" s="9">
+      <c r="N33" s="13">
         <v>0.77685899999999997</v>
       </c>
     </row>
@@ -6393,52 +6433,56 @@
     <sortCondition ref="C2:C25"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M19"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="K1">
         <v>6</v>
@@ -6452,668 +6496,434 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>37</v>
+      <c r="A3" s="1">
+        <v>0.52940330000000002</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.37109989999999998</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.52723819999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.35679290000000002</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.52660340000000005</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.36002260000000003</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.52920509999999998</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.37109910000000002</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.53075839999999996</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.37164019999999998</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.52617259999999999</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.52999399999999997</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.53144729999999996</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>39</v>
+      <c r="A5" s="1">
+        <v>0.72333139999999996</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.52709859999999997</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.73354580000000003</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.52776020000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.73135539999999999</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.52939939999999996</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.72333219999999998</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.52803020000000001</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.72278279999999995</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.5282133</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.73466160000000003</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.7210278</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.72044540000000001</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>56</v>
+      <c r="A7" s="1">
+        <v>0.18623000000000001</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.52940330000000002</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.17890600000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.52723819999999999</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.19230510000000001</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.52660340000000005</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.1919179</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.53006759999999997</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.1923077</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.53075839999999996</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.45796880000000001</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.45797349999999998</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.45799610000000002</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>57</v>
+      <c r="A9" s="1">
+        <v>0.52709859999999997</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.77717650000000005</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.52776020000000001</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.78144910000000001</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.52939939999999996</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.77463899999999997</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.52803020000000001</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.7750515</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.5282133</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.77505250000000003</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.50072470000000002</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.50073599999999996</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.50070789999999998</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>43</v>
+      <c r="A11" s="12">
+        <v>-0.53710139999999995</v>
+      </c>
+      <c r="B11" s="12">
+        <v>-2.3047000000000484E-3</v>
+      </c>
+      <c r="C11" s="12">
+        <v>2.3047000000000484E-3</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.40607660000000007</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>44</v>
+      <c r="A12" s="12">
+        <v>-0.55463980000000002</v>
+      </c>
+      <c r="B12" s="12">
+        <v>5.2200000000002245E-4</v>
+      </c>
+      <c r="C12" s="12">
+        <v>-5.2200000000002245E-4</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.42465619999999998</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>43</v>
+      <c r="A13" s="12">
+        <v>-0.53905029999999998</v>
+      </c>
+      <c r="B13" s="12">
+        <v>2.7959999999999097E-3</v>
+      </c>
+      <c r="C13" s="12">
+        <v>-2.7959999999999097E-3</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0.41461639999999994</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>45</v>
+      <c r="A14" s="12">
+        <v>-0.53141430000000001</v>
+      </c>
+      <c r="B14" s="12">
+        <v>-1.1748999999999787E-3</v>
+      </c>
+      <c r="C14" s="12">
+        <v>2.037399999999967E-3</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.40395239999999999</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>58</v>
+      <c r="A15" s="12">
+        <v>-0.53047509999999998</v>
+      </c>
+      <c r="B15" s="12">
+        <v>-2.5450999999999668E-3</v>
+      </c>
+      <c r="C15" s="12">
+        <v>2.5450999999999668E-3</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0.40341230000000006</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F19" s="5"/>
+      <c r="A16" s="12">
+        <v>-0.27669280000000002</v>
+      </c>
+      <c r="B16" s="12">
+        <v>-2.5447899999999968E-2</v>
+      </c>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>-0.26305430000000002</v>
+      </c>
+      <c r="B17" s="12">
+        <v>-2.9258000000000006E-2</v>
+      </c>
+      <c r="C17" s="12"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>-0.2624493</v>
+      </c>
+      <c r="B18" s="12">
+        <v>-3.0739399999999972E-2</v>
+      </c>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="91" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>